--- a/Portal/TestData/Login/Login.xlsx
+++ b/Portal/TestData/Login/Login.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -66,6 +67,30 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Login with InValid Username and Password</t>
+  </si>
+  <si>
+    <t>admin32423</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>$errorMsg1</t>
   </si>
 </sst>
 </file>
@@ -416,16 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -450,7 +477,9 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -479,12 +508,12 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -499,39 +528,206 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Portal/TestData/Login/Login.xlsx
+++ b/Portal/TestData/Login/Login.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -66,18 +66,12 @@
     <t>${status}</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -90,7 +84,16 @@
     <t>TC04</t>
   </si>
   <si>
-    <t>$errorMsg1</t>
+    <t>admin12356</t>
+  </si>
+  <si>
+    <t>${errorMsg}</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -161,6 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,10 +456,10 @@
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +482,103 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"Invalid,Valid"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -505,15 +604,13 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -528,13 +625,38 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -546,15 +668,15 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -580,152 +702,6 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portal/TestData/Login/Login.xlsx
+++ b/Portal/TestData/Login/Login.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\PycharmProjects\RobertFrameworkDemo\Portal\TestData\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD02B1-F6C5-4930-B166-63496815AEE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6990"/>
+    <workbookView xWindow="1920" yWindow="2115" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,24 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
-  <si>
-    <t>TestcaseID</t>
-  </si>
-  <si>
-    <t>TestCaseDescription</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Login with Valid Username and Password</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/index.php/auth/login</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+  <si>
+    <t>${TestCase_ID}</t>
+  </si>
+  <si>
+    <t>${TestCase_Discription}</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Admin</t>
@@ -51,12 +60,12 @@
     <t>admin123</t>
   </si>
   <si>
+    <t>${LoginUrl}</t>
+  </si>
+  <si>
     <t>${BrowserType}</t>
   </si>
   <si>
-    <t>${LoginUrl}</t>
-  </si>
-  <si>
     <t>${Username}</t>
   </si>
   <si>
@@ -66,41 +75,41 @@
     <t>${status}</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Login with InValid Username and Password</t>
-  </si>
-  <si>
-    <t>admin32423</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>$errorMsg1</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>admin1234</t>
+  </si>
+  <si>
+    <t>Verify login with Valid TestCase</t>
+  </si>
+  <si>
+    <t>verify login with invalid TestCase</t>
+  </si>
+  <si>
+    <t>${error}</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,13 +124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,14 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,22 +449,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,271 +475,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{2399BCB5-2EEE-42EB-8BAD-E5157EBA30FA}">
+      <formula1>"chrome,ff"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{C82D2661-27B2-4D00-874E-DA928A3E73E7}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{839BF8AD-F919-430D-B23C-DE2A344B69B8}">
+      <formula1>"Valid,InvalidCredentials"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Portal/TestData/Login/Login.xlsx
+++ b/Portal/TestData/Login/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\RobertFrameworkDemo1\Portal\TestData\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD02B1-F6C5-4930-B166-63496815AEE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7EDAF-56B8-4111-B49B-77232EF20140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2115" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
